--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Bmp8a-Tgfbr2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Bmp8a-Tgfbr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Tgfbr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.399543826956619</v>
+        <v>0.6755706666666667</v>
       </c>
       <c r="H2">
-        <v>0.399543826956619</v>
+        <v>2.026712</v>
       </c>
       <c r="I2">
-        <v>0.4426061232667254</v>
+        <v>0.3897021710091529</v>
       </c>
       <c r="J2">
-        <v>0.4426061232667254</v>
+        <v>0.3897021710091529</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.0375747557458</v>
+        <v>28.21795633333333</v>
       </c>
       <c r="N2">
-        <v>21.0375747557458</v>
+        <v>84.653869</v>
       </c>
       <c r="O2">
-        <v>0.1692618942090072</v>
+        <v>0.2124568395711989</v>
       </c>
       <c r="P2">
-        <v>0.1692618942090072</v>
+        <v>0.212456839571199</v>
       </c>
       <c r="Q2">
-        <v>8.405433127796636</v>
+        <v>19.06322357208089</v>
       </c>
       <c r="R2">
-        <v>8.405433127796636</v>
+        <v>171.569012148728</v>
       </c>
       <c r="S2">
-        <v>0.07491635081263126</v>
+        <v>0.08279489162663953</v>
       </c>
       <c r="T2">
-        <v>0.07491635081263126</v>
+        <v>0.08279489162663954</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.399543826956619</v>
+        <v>0.6755706666666667</v>
       </c>
       <c r="H3">
-        <v>0.399543826956619</v>
+        <v>2.026712</v>
       </c>
       <c r="I3">
-        <v>0.4426061232667254</v>
+        <v>0.3897021710091529</v>
       </c>
       <c r="J3">
-        <v>0.4426061232667254</v>
+        <v>0.3897021710091529</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>63.0818615972562</v>
+        <v>63.95730733333333</v>
       </c>
       <c r="N3">
-        <v>63.0818615972562</v>
+        <v>191.871922</v>
       </c>
       <c r="O3">
-        <v>0.5075373710206688</v>
+        <v>0.4815432848151522</v>
       </c>
       <c r="P3">
-        <v>0.5075373710206688</v>
+        <v>0.4815432848151524</v>
       </c>
       <c r="Q3">
-        <v>25.20396839411552</v>
+        <v>43.20768075338489</v>
       </c>
       <c r="R3">
-        <v>25.20396839411552</v>
+        <v>388.8691267804639</v>
       </c>
       <c r="S3">
-        <v>0.2246391482004439</v>
+        <v>0.1876584635273437</v>
       </c>
       <c r="T3">
-        <v>0.2246391482004439</v>
+        <v>0.1876584635273437</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.399543826956619</v>
+        <v>0.6755706666666667</v>
       </c>
       <c r="H4">
-        <v>0.399543826956619</v>
+        <v>2.026712</v>
       </c>
       <c r="I4">
-        <v>0.4426061232667254</v>
+        <v>0.3897021710091529</v>
       </c>
       <c r="J4">
-        <v>0.4426061232667254</v>
+        <v>0.3897021710091529</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.071921940978</v>
+        <v>27.47719633333334</v>
       </c>
       <c r="N4">
-        <v>27.071921940978</v>
+        <v>82.431589</v>
       </c>
       <c r="O4">
-        <v>0.2178124066490512</v>
+        <v>0.2068795565595709</v>
       </c>
       <c r="P4">
-        <v>0.2178124066490512</v>
+        <v>0.2068795565595709</v>
       </c>
       <c r="Q4">
-        <v>10.81641929536921</v>
+        <v>18.56278784504089</v>
       </c>
       <c r="R4">
-        <v>10.81641929536921</v>
+        <v>167.065090605368</v>
       </c>
       <c r="S4">
-        <v>0.09640510490633208</v>
+        <v>0.08062141232867563</v>
       </c>
       <c r="T4">
-        <v>0.09640510490633208</v>
+        <v>0.08062141232867563</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.399543826956619</v>
+        <v>0.6755706666666667</v>
       </c>
       <c r="H5">
-        <v>0.399543826956619</v>
+        <v>2.026712</v>
       </c>
       <c r="I5">
-        <v>0.4426061232667254</v>
+        <v>0.3897021710091529</v>
       </c>
       <c r="J5">
-        <v>0.4426061232667254</v>
+        <v>0.3897021710091529</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.098723972075</v>
+        <v>13.164899</v>
       </c>
       <c r="N5">
-        <v>13.098723972075</v>
+        <v>39.494697</v>
       </c>
       <c r="O5">
-        <v>0.1053883281212728</v>
+        <v>0.09912031905407785</v>
       </c>
       <c r="P5">
-        <v>0.1053883281212728</v>
+        <v>0.09912031905407789</v>
       </c>
       <c r="Q5">
-        <v>5.23351430405125</v>
+        <v>8.893819594029333</v>
       </c>
       <c r="R5">
-        <v>5.23351430405125</v>
+        <v>80.044376346264</v>
       </c>
       <c r="S5">
-        <v>0.04664551934731819</v>
+        <v>0.03862740352649405</v>
       </c>
       <c r="T5">
-        <v>0.04664551934731819</v>
+        <v>0.03862740352649406</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.503163582529092</v>
+        <v>0.4713496666666666</v>
       </c>
       <c r="H6">
-        <v>0.503163582529092</v>
+        <v>1.414049</v>
       </c>
       <c r="I6">
-        <v>0.5573938767332746</v>
+        <v>0.2718975193383775</v>
       </c>
       <c r="J6">
-        <v>0.5573938767332746</v>
+        <v>0.2718975193383774</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.0375747557458</v>
+        <v>28.21795633333333</v>
       </c>
       <c r="N6">
-        <v>21.0375747557458</v>
+        <v>84.653869</v>
       </c>
       <c r="O6">
-        <v>0.1692618942090072</v>
+        <v>0.2124568395711989</v>
       </c>
       <c r="P6">
-        <v>0.1692618942090072</v>
+        <v>0.212456839571199</v>
       </c>
       <c r="Q6">
-        <v>10.58534148182465</v>
+        <v>13.30052431173122</v>
       </c>
       <c r="R6">
-        <v>10.58534148182465</v>
+        <v>119.704718805581</v>
       </c>
       <c r="S6">
-        <v>0.09434554339637591</v>
+        <v>0.05776648764588061</v>
       </c>
       <c r="T6">
-        <v>0.09434554339637591</v>
+        <v>0.05776648764588062</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.503163582529092</v>
+        <v>0.4713496666666666</v>
       </c>
       <c r="H7">
-        <v>0.503163582529092</v>
+        <v>1.414049</v>
       </c>
       <c r="I7">
-        <v>0.5573938767332746</v>
+        <v>0.2718975193383775</v>
       </c>
       <c r="J7">
-        <v>0.5573938767332746</v>
+        <v>0.2718975193383774</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>63.0818615972562</v>
+        <v>63.95730733333333</v>
       </c>
       <c r="N7">
-        <v>63.0818615972562</v>
+        <v>191.871922</v>
       </c>
       <c r="O7">
-        <v>0.5075373710206688</v>
+        <v>0.4815432848151522</v>
       </c>
       <c r="P7">
-        <v>0.5075373710206688</v>
+        <v>0.4815432848151524</v>
       </c>
       <c r="Q7">
-        <v>31.74049547387978</v>
+        <v>30.14625549246421</v>
       </c>
       <c r="R7">
-        <v>31.74049547387978</v>
+        <v>271.316299432178</v>
       </c>
       <c r="S7">
-        <v>0.2828982228202249</v>
+        <v>0.1309304245952937</v>
       </c>
       <c r="T7">
-        <v>0.2828982228202249</v>
+        <v>0.1309304245952937</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.503163582529092</v>
+        <v>0.4713496666666666</v>
       </c>
       <c r="H8">
-        <v>0.503163582529092</v>
+        <v>1.414049</v>
       </c>
       <c r="I8">
-        <v>0.5573938767332746</v>
+        <v>0.2718975193383775</v>
       </c>
       <c r="J8">
-        <v>0.5573938767332746</v>
+        <v>0.2718975193383774</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>27.071921940978</v>
+        <v>27.47719633333334</v>
       </c>
       <c r="N8">
-        <v>27.071921940978</v>
+        <v>82.431589</v>
       </c>
       <c r="O8">
-        <v>0.2178124066490512</v>
+        <v>0.2068795565595709</v>
       </c>
       <c r="P8">
-        <v>0.2178124066490512</v>
+        <v>0.2068795565595709</v>
       </c>
       <c r="Q8">
-        <v>13.62160522977042</v>
+        <v>12.95136733265122</v>
       </c>
       <c r="R8">
-        <v>13.62160522977042</v>
+        <v>116.562305993861</v>
       </c>
       <c r="S8">
-        <v>0.1214073017427191</v>
+        <v>0.05625003823037088</v>
       </c>
       <c r="T8">
-        <v>0.1214073017427191</v>
+        <v>0.05625003823037088</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.4713496666666666</v>
+      </c>
+      <c r="H9">
+        <v>1.414049</v>
+      </c>
+      <c r="I9">
+        <v>0.2718975193383775</v>
+      </c>
+      <c r="J9">
+        <v>0.2718975193383774</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>13.164899</v>
+      </c>
+      <c r="N9">
+        <v>39.494697</v>
+      </c>
+      <c r="O9">
+        <v>0.09912031905407785</v>
+      </c>
+      <c r="P9">
+        <v>0.09912031905407789</v>
+      </c>
+      <c r="Q9">
+        <v>6.205270755350333</v>
+      </c>
+      <c r="R9">
+        <v>55.847436798153</v>
+      </c>
+      <c r="S9">
+        <v>0.02695056886683228</v>
+      </c>
+      <c r="T9">
+        <v>0.02695056886683228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.08256733333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.247702</v>
+      </c>
+      <c r="I10">
+        <v>0.04762887236238261</v>
+      </c>
+      <c r="J10">
+        <v>0.04762887236238261</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>28.21795633333333</v>
+      </c>
+      <c r="N10">
+        <v>84.653869</v>
+      </c>
+      <c r="O10">
+        <v>0.2124568395711989</v>
+      </c>
+      <c r="P10">
+        <v>0.212456839571199</v>
+      </c>
+      <c r="Q10">
+        <v>2.329881406559778</v>
+      </c>
+      <c r="R10">
+        <v>20.968932659038</v>
+      </c>
+      <c r="S10">
+        <v>0.01011907969445183</v>
+      </c>
+      <c r="T10">
+        <v>0.01011907969445183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.08256733333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.247702</v>
+      </c>
+      <c r="I11">
+        <v>0.04762887236238261</v>
+      </c>
+      <c r="J11">
+        <v>0.04762887236238261</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>63.95730733333333</v>
+      </c>
+      <c r="N11">
+        <v>191.871922</v>
+      </c>
+      <c r="O11">
+        <v>0.4815432848151522</v>
+      </c>
+      <c r="P11">
+        <v>0.4815432848151524</v>
+      </c>
+      <c r="Q11">
+        <v>5.280784313693776</v>
+      </c>
+      <c r="R11">
+        <v>47.52705882324399</v>
+      </c>
+      <c r="S11">
+        <v>0.02293536364942334</v>
+      </c>
+      <c r="T11">
+        <v>0.02293536364942335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.08256733333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.247702</v>
+      </c>
+      <c r="I12">
+        <v>0.04762887236238261</v>
+      </c>
+      <c r="J12">
+        <v>0.04762887236238261</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>27.47719633333334</v>
+      </c>
+      <c r="N12">
+        <v>82.431589</v>
+      </c>
+      <c r="O12">
+        <v>0.2068795565595709</v>
+      </c>
+      <c r="P12">
+        <v>0.2068795565595709</v>
+      </c>
+      <c r="Q12">
+        <v>2.268718828719778</v>
+      </c>
+      <c r="R12">
+        <v>20.418469458478</v>
+      </c>
+      <c r="S12">
+        <v>0.009853439993762118</v>
+      </c>
+      <c r="T12">
+        <v>0.009853439993762118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.08256733333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.247702</v>
+      </c>
+      <c r="I13">
+        <v>0.04762887236238261</v>
+      </c>
+      <c r="J13">
+        <v>0.04762887236238261</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>13.164899</v>
+      </c>
+      <c r="N13">
+        <v>39.494697</v>
+      </c>
+      <c r="O13">
+        <v>0.09912031905407785</v>
+      </c>
+      <c r="P13">
+        <v>0.09912031905407789</v>
+      </c>
+      <c r="Q13">
+        <v>1.086990604032667</v>
+      </c>
+      <c r="R13">
+        <v>9.782915436293999</v>
+      </c>
+      <c r="S13">
+        <v>0.004720989024745315</v>
+      </c>
+      <c r="T13">
+        <v>0.004720989024745316</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.5040686666666666</v>
+      </c>
+      <c r="H14">
+        <v>1.512206</v>
+      </c>
+      <c r="I14">
+        <v>0.2907714372900871</v>
+      </c>
+      <c r="J14">
+        <v>0.2907714372900871</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>28.21795633333333</v>
+      </c>
+      <c r="N14">
+        <v>84.653869</v>
+      </c>
+      <c r="O14">
+        <v>0.2124568395711989</v>
+      </c>
+      <c r="P14">
+        <v>0.212456839571199</v>
+      </c>
+      <c r="Q14">
+        <v>14.22378762500155</v>
+      </c>
+      <c r="R14">
+        <v>128.014088625014</v>
+      </c>
+      <c r="S14">
+        <v>0.06177638060422697</v>
+      </c>
+      <c r="T14">
+        <v>0.06177638060422698</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.503163582529092</v>
-      </c>
-      <c r="H9">
-        <v>0.503163582529092</v>
-      </c>
-      <c r="I9">
-        <v>0.5573938767332746</v>
-      </c>
-      <c r="J9">
-        <v>0.5573938767332746</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>13.098723972075</v>
-      </c>
-      <c r="N9">
-        <v>13.098723972075</v>
-      </c>
-      <c r="O9">
-        <v>0.1053883281212728</v>
-      </c>
-      <c r="P9">
-        <v>0.1053883281212728</v>
-      </c>
-      <c r="Q9">
-        <v>6.590800880348954</v>
-      </c>
-      <c r="R9">
-        <v>6.590800880348954</v>
-      </c>
-      <c r="S9">
-        <v>0.05874280877395465</v>
-      </c>
-      <c r="T9">
-        <v>0.05874280877395465</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.5040686666666666</v>
+      </c>
+      <c r="H15">
+        <v>1.512206</v>
+      </c>
+      <c r="I15">
+        <v>0.2907714372900871</v>
+      </c>
+      <c r="J15">
+        <v>0.2907714372900871</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>63.95730733333333</v>
+      </c>
+      <c r="N15">
+        <v>191.871922</v>
+      </c>
+      <c r="O15">
+        <v>0.4815432848151522</v>
+      </c>
+      <c r="P15">
+        <v>0.4815432848151524</v>
+      </c>
+      <c r="Q15">
+        <v>32.23887463110355</v>
+      </c>
+      <c r="R15">
+        <v>290.1498716799319</v>
+      </c>
+      <c r="S15">
+        <v>0.1400190330430916</v>
+      </c>
+      <c r="T15">
+        <v>0.1400190330430917</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.5040686666666666</v>
+      </c>
+      <c r="H16">
+        <v>1.512206</v>
+      </c>
+      <c r="I16">
+        <v>0.2907714372900871</v>
+      </c>
+      <c r="J16">
+        <v>0.2907714372900871</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>27.47719633333334</v>
+      </c>
+      <c r="N16">
+        <v>82.431589</v>
+      </c>
+      <c r="O16">
+        <v>0.2068795565595709</v>
+      </c>
+      <c r="P16">
+        <v>0.2068795565595709</v>
+      </c>
+      <c r="Q16">
+        <v>13.85039371948156</v>
+      </c>
+      <c r="R16">
+        <v>124.653543475334</v>
+      </c>
+      <c r="S16">
+        <v>0.06015466600676231</v>
+      </c>
+      <c r="T16">
+        <v>0.06015466600676232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.5040686666666666</v>
+      </c>
+      <c r="H17">
+        <v>1.512206</v>
+      </c>
+      <c r="I17">
+        <v>0.2907714372900871</v>
+      </c>
+      <c r="J17">
+        <v>0.2907714372900871</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>13.164899</v>
+      </c>
+      <c r="N17">
+        <v>39.494697</v>
+      </c>
+      <c r="O17">
+        <v>0.09912031905407785</v>
+      </c>
+      <c r="P17">
+        <v>0.09912031905407789</v>
+      </c>
+      <c r="Q17">
+        <v>6.636013085731332</v>
+      </c>
+      <c r="R17">
+        <v>59.724117771582</v>
+      </c>
+      <c r="S17">
+        <v>0.02882135763600623</v>
+      </c>
+      <c r="T17">
+        <v>0.02882135763600624</v>
       </c>
     </row>
   </sheetData>
